--- a/biology/Histoire de la zoologie et de la botanique/Livre_des_simples_médecines/Livre_des_simples_médecines.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Livre_des_simples_médecines/Livre_des_simples_médecines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Livre_des_simples_m%C3%A9decines</t>
+          <t>Livre_des_simples_médecines</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Livre des simples médecines est le titre donné collectivement à un texte en français transmis par plus de 25 manuscrits enluminés médiévaux des XVe et XVIe siècles. Il s'agit d'une traduction du Tractatus de herbis, un traité en latin lui-même dérivé du Circa instans, lequel a été compilé au XIIe siècle dans le milieu de l'école de médecine de Salerne. Comme ses prédécesseurs, le Livre des simples médecines présente des simples, c'est-à-dire des substances végétales, minérales ou animales pures, possédant des vertus thérapeutiques. Elles y sont regroupées par ordre alphabétique et accompagnées d'illustrations.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Livre_des_simples_m%C3%A9decines</t>
+          <t>Livre_des_simples_médecines</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,11 @@
           <t>Manuscrits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Felix Baumann divise initialement les manuscrits en trois groupes[1]. François Avril établit ensuite que les groupes 1 et 3, malgré certaines variations, appartiennent en réalité à la même famille, et distingue plutôt deux grands rassemblements géographiques[2].
-France du Nord et états bourguignons
-Les manuscrits de ce groupe ont une même structure qui consiste en deux colonnes de texte avec les illustrations de plantes insérées dans la colonne et des scènes figurées non encadrées. Il s'agit pour la plupart d'ouvrages de cour réalisés à grands frais et souvent décorés des armoiries de leurs possesseurs [3].
-France de l'Ouest
-Les manuscrits de ce groupe se distinguent par un certain nombre de différences iconographiques et sont tous dérivés d'un codex initialement possédé par le prince Charles IV du Maine[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Felix Baumann divise initialement les manuscrits en trois groupes. François Avril établit ensuite que les groupes 1 et 3, malgré certaines variations, appartiennent en réalité à la même famille, et distingue plutôt deux grands rassemblements géographiques.
 </t>
         </is>
       </c>
@@ -528,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Livre_des_simples_m%C3%A9decines</t>
+          <t>Livre_des_simples_médecines</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +553,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Manuscrits</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>France du Nord et états bourguignons</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les manuscrits de ce groupe ont une même structure qui consiste en deux colonnes de texte avec les illustrations de plantes insérées dans la colonne et des scènes figurées non encadrées. Il s'agit pour la plupart d'ouvrages de cour réalisés à grands frais et souvent décorés des armoiries de leurs possesseurs .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Livre_des_simples_médecines</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Livre_des_simples_m%C3%A9decines</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Manuscrits</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>France de l'Ouest</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les manuscrits de ce groupe se distinguent par un certain nombre de différences iconographiques et sont tous dérivés d'un codex initialement possédé par le prince Charles IV du Maine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Livre_des_simples_médecines</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Livre_des_simples_m%C3%A9decines</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Origines, structure et contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous les témoignages connus du Livre des simples médecines semblent provenir d'une traduction unique du traité connu sous le titre de Tractatus de herbis et réalisée à la fin du XIVe ou au début du XVe siècle.
 </t>
